--- a/training_schedule_updated.xlsx
+++ b/training_schedule_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ron Tohar\Desktop\הכשרה\CV_training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A01FC3E-DA3B-44A7-9734-224F1880B341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FC8A37-A6A4-48C4-9F82-40F4874359BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,7 +512,7 @@
       </c>
       <c r="D5">
         <f>SUM(D6:D11)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -553,7 +553,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">

--- a/training_schedule_updated.xlsx
+++ b/training_schedule_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ron Tohar\Desktop\הכשרה\CV_training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FC8A37-A6A4-48C4-9F82-40F4874359BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39B67AF-DF88-43AB-8FA4-C1FD7A539970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -512,7 +512,7 @@
       </c>
       <c r="D5">
         <f>SUM(D6:D11)</f>
-        <v>9</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -553,7 +553,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">

--- a/training_schedule_updated.xlsx
+++ b/training_schedule_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ron Tohar\Desktop\הכשרה\CV_training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39B67AF-DF88-43AB-8FA4-C1FD7A539970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C947EC6C-ED18-4C01-9A19-0450B3DC6D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -454,7 +454,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
@@ -512,7 +512,7 @@
       </c>
       <c r="D5">
         <f>SUM(D6:D11)</f>
-        <v>9.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -562,6 +562,9 @@
       </c>
       <c r="C10">
         <v>3</v>
+      </c>
+      <c r="D10">
+        <v>2.5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
